--- a/mapeamento separado/CA mapeamento importação Acervo_Artigo_de_toalete.xlsx
+++ b/mapeamento separado/CA mapeamento importação Acervo_Artigo_de_toalete.xlsx
@@ -1,133 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\mapeamento separado\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532FE254-5362-4DEE-A120-96D065EACADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="Drop-down Lists" sheetId="2" r:id="rId2"/>
+    <sheet name="Mapping" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Drop-down Lists" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="existingRecordPolicy">'Drop-down Lists'!$C$1:$C$13</definedName>
-    <definedName name="ignore_stop">'Drop-down Lists'!$B$1:$B$2</definedName>
-    <definedName name="importer_type">'Drop-down Lists'!$E$1:$E$3</definedName>
-    <definedName name="inputTypes">'Drop-down Lists'!$E$1:$E$4</definedName>
-    <definedName name="Ruletypes">'Drop-down Lists'!$A$1:$A$4</definedName>
-    <definedName name="RuletypesWRules">'Drop-down Lists'!$A$1:$A$6</definedName>
-    <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
-    <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
+    <definedName function="false" hidden="false" name="existingRecordPolicy" vbProcedure="false">'Drop-down Lists'!$C$1:$C$13</definedName>
+    <definedName function="false" hidden="false" name="ignore_stop" vbProcedure="false">'Drop-down Lists'!$B$1:$B$2</definedName>
+    <definedName function="false" hidden="false" name="importer_type" vbProcedure="false">'Drop-down Lists'!$E$1:$E$3</definedName>
+    <definedName function="false" hidden="false" name="inputTypes" vbProcedure="false">'Drop-down Lists'!$E$1:$E$4</definedName>
+    <definedName function="false" hidden="false" name="Ruletypes" vbProcedure="false">'Drop-down Lists'!$A$1:$A$4</definedName>
+    <definedName function="false" hidden="false" name="RuletypesWRules" vbProcedure="false">'Drop-down Lists'!$A$1:$A$6</definedName>
+    <definedName function="false" hidden="false" name="table" vbProcedure="false">'Drop-down Lists'!$F$1:$F$16</definedName>
+    <definedName function="false" hidden="false" name="YES_NO" vbProcedure="false">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
-  <si>
-    <t>Rule type</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>CA table.element</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Refinery</t>
-  </si>
-  <si>
-    <t>Refinery parameters</t>
-  </si>
-  <si>
-    <t>Original values</t>
-  </si>
-  <si>
-    <t>Replacement values</t>
-  </si>
-  <si>
-    <t>Source description</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>Mapping</t>
-  </si>
-  <si>
-    <t>ca_objects.idno</t>
-  </si>
-  <si>
-    <t>ca_objects.preferred_labels</t>
-  </si>
-  <si>
-    <t>ca_objects.objectProductionDate</t>
-  </si>
-  <si>
-    <t>ca_places</t>
-  </si>
-  <si>
-    <t>placeSplitter</t>
-  </si>
-  <si>
-    <t>{
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
+  <si>
+    <t xml:space="preserve">Rule type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA table.element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refinery parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacement values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.idno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.objectProductionDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placeSplitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
     "relationshipType": "created",
     "placeType": "city"
 }</t>
   </si>
   <si>
-    <t>Não encontrei o elemento do local de criação. Revisar.</t>
-  </si>
-  <si>
-    <t>ca_objects.materiaux_tech_c.materiaux</t>
-  </si>
-  <si>
-    <t>listItemSplitter</t>
-  </si>
-  <si>
-    <t>{"list": "dmf_lexmateriaux"}</t>
-  </si>
-  <si>
-    <t>ca_objects.work_dimensions</t>
-  </si>
-  <si>
-    <t>ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
-  </si>
-  <si>
-    <t>aquis</t>
-  </si>
-  <si>
-    <t>ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
-  </si>
-  <si>
-    <t>ca_storage_locations</t>
-  </si>
-  <si>
-    <t>storageLocationSplitter</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">ca_objects.materiaux_tech_c.materiaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.work_dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_storage_locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storageLocationSplitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
     "relationshipType": "related"}</t>
   </si>
   <si>
-    <t>ca_objects.constatEtat.etat_global</t>
+    <t xml:space="preserve">ca_objects.constatEtat.etat_global</t>
   </si>
   <si>
     <r>
@@ -150,280 +141,355 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Ruim
+      <t xml:space="preserve">Ruim
 "?"</t>
     </r>
   </si>
   <si>
-    <t>bon
+    <t xml:space="preserve">bon
 a_traiter
 mauvais
 etatglobal_nonrenseigne</t>
   </si>
   <si>
-    <t>ca_entities</t>
-  </si>
-  <si>
-    <t>entitySplitter</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">ca_entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+   "applyRegularExpressions": [
+ {
+ "match": "(^[ A-Za-z,ãÃáÁàÀêÊéÉèÈíÍìÌôÔõÕóÓòÒúÚùÙûÛçÇºª\\']+).+", 
+"replaceWith": "\\1" 
+}
+]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entitySplitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
     "relationshipType": "creation_auteur",
-    "entityType": "person"
+    "entityType": "ind"
 }</t>
   </si>
   <si>
-    <t>ca_objects.marquage_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"suffix": " - Localização da Assinatura"} </t>
-  </si>
-  <si>
-    <t>ca_objects.dimensions.dimensions_length</t>
-  </si>
-  <si>
-    <t>dim1</t>
-  </si>
-  <si>
-    <t>ca_objects.dimensions.dimensions_height</t>
-  </si>
-  <si>
-    <t>Setting name</t>
-  </si>
-  <si>
-    <t>Setting value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Human readable name of the mapping</t>
-  </si>
-  <si>
-    <t>Arbitrary text</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>Alphanumeric code of the mapping</t>
-  </si>
-  <si>
-    <t>Arbitrary, no special characters or spaces</t>
-  </si>
-  <si>
-    <t>inputFormats</t>
-  </si>
-  <si>
-    <t>XLSX</t>
-  </si>
-  <si>
-    <t>Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
-  </si>
-  <si>
-    <t>file type</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>ca_objects</t>
-  </si>
-  <si>
-    <t>Sets the table for the imported data</t>
-  </si>
-  <si>
-    <t>Corresponds to CollectiveAccess Basic Tables</t>
-  </si>
-  <si>
-    <t>existingRecordPolicy</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Determines how existing records are checked for and handled for the mapping</t>
-  </si>
-  <si>
-    <t>errorPolicy</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Set the target record's type_id</t>
-  </si>
-  <si>
-    <t>numInitialRowsToSkip</t>
-  </si>
-  <si>
-    <t>The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
-  </si>
-  <si>
-    <t>If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ca_object_lots</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>skip_on_idno</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>XLS</t>
-  </si>
-  <si>
-    <t>merge_on_idno</t>
-  </si>
-  <si>
-    <t>MYSQL</t>
-  </si>
-  <si>
-    <t>Rule</t>
-  </si>
-  <si>
-    <t>merge_on_idno_with_replace</t>
-  </si>
-  <si>
-    <t>FMPDSO</t>
-  </si>
-  <si>
-    <t>ca_collections</t>
-  </si>
-  <si>
-    <t>overwrite_on_idno</t>
-  </si>
-  <si>
-    <t>Inmagic</t>
-  </si>
-  <si>
-    <t>ca_occurrences</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>skip_on_preferred_labels</t>
-  </si>
-  <si>
-    <t>MARC</t>
-  </si>
-  <si>
-    <t>ca_loans</t>
-  </si>
-  <si>
-    <t>merge_on_preferred_labels</t>
-  </si>
-  <si>
-    <t>CollectiveAccess</t>
-  </si>
-  <si>
-    <t>merge_on_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t>FMPXML</t>
-  </si>
-  <si>
-    <t>ca_movements</t>
-  </si>
-  <si>
-    <t>overwrite_on_preferred_labels</t>
-  </si>
-  <si>
-    <t>TEI</t>
-  </si>
-  <si>
-    <t>ca_object_events</t>
-  </si>
-  <si>
-    <t>skip_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t>WorldCat</t>
-  </si>
-  <si>
-    <t>ca_object_lot_events</t>
-  </si>
-  <si>
-    <t>merge_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t>pastperfectxml</t>
-  </si>
-  <si>
-    <t>ca_sets</t>
-  </si>
-  <si>
-    <t>merge_on_idno_and_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t>TabDelimited</t>
-  </si>
-  <si>
-    <t>ca_set_items</t>
-  </si>
-  <si>
-    <t>overwrite_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t>CSVDelimited</t>
-  </si>
-  <si>
-    <t>ca_object_representations</t>
-  </si>
-  <si>
-    <t>ULAN</t>
-  </si>
-  <si>
-    <t>RDF</t>
-  </si>
-  <si>
-    <t>ca_lists</t>
-  </si>
-  <si>
-    <t>ca_list_items</t>
-  </si>
-  <si>
-    <t>ca_objects.dimensions.dimensions_depth</t>
-  </si>
-  <si>
-    <t>Importação Artigo de toalete MDJVI</t>
-  </si>
-  <si>
-    <t>Mapeamento_Artigo_de_toalete</t>
-  </si>
-  <si>
-    <t>opessoal_toalete</t>
+    <t xml:space="preserve">ca_objects.inscription_c.inscription_info_c.inscription_emplacement_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c
+cd
+ce
+cid
+cie
+csd
+cse
+ebc
+ebd
+ebe
+ecc
+ecd
+ece
+vc
+vcd
+vce
+vcid
+Vcie
+vcsd
+vcse
+vebc
+vebd
+vebe
+vecc
+vecd
+vece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centro
+centro à direita
+centro à esquerda
+canto inferior direito
+canto inferior esquerdo
+canto superior direito
+canto superior esquerdo
+embaixo no centro
+embaixo à direita
+embaixo à esquerda
+em cima no centro
+em cima à direita
+em cima à esquerda
+verso centro
+verso centro direita
+verso centro à esquerda
+verso canto inferior direito
+verso canto inferior esquerdo
+verso canto superior direito
+verso canto superior esquerdo
+verso embaixo no centro
+verso embaixo à direita
+verso embaixo à esquerda
+verso em cima no centro
+verso em cima à direita
+verso em cima à esquerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.inscription_c.inscription_type_c.inscription_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.dimensions.dimensions_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.dimensions.dimensions_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.dimensions.dimensions_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importação Artigo de toalete MDJVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human readable name of the mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbitrary text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapeamento_Artigo_de_toalete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphanumeric code of the mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbitrary, no special characters or spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inputFormats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets the table for the imported data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponds to CollectiveAccess Basic Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existingRecordPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determines how existing records are checked for and handled for the mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errorPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opessoal_toalete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the target record's type_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numInitialRowsToSkip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_object_lots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip_on_idno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_idno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_idno_with_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMPDSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overwrite_on_idno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inmagic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_occurrences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip_on_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollectiveAccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMPXML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_movements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overwrite_on_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_object_events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorldCat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_object_lot_events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pastperfectxml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_idno_and_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TabDelimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_set_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overwrite_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSVDelimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_object_representations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_list_items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -432,7 +498,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -446,7 +527,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -461,7 +542,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -477,7 +558,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -485,381 +566,125 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.5"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="59.625"/>
-    <col min="5" max="5" width="31.125"/>
-    <col min="6" max="6" width="40.5"/>
-    <col min="7" max="7" width="22"/>
-    <col min="8" max="8" width="20.75"/>
-    <col min="9" max="9" width="25.625"/>
-    <col min="10" max="10" width="43.125"/>
-    <col min="11" max="11" width="74.25"/>
-    <col min="12" max="26" width="12"/>
-    <col min="27" max="1025" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="74.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,11 +734,11 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -940,11 +765,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -972,11 +797,11 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
@@ -1004,11 +829,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
@@ -1036,11 +861,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1069,11 +894,11 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1103,11 +928,11 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1124,9 +949,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1143,24 +966,20 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
@@ -1181,11 +1000,11 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
@@ -1212,11 +1031,11 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2"/>
@@ -1243,15 +1062,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
@@ -1277,18 +1096,18 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
+      <c r="C13" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1313,18 +1132,18 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1349,23 +1168,23 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1387,25 +1206,25 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
+      <c r="C16" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
@@ -1425,11 +1244,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="2"/>
@@ -1456,23 +1275,25 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1494,24 +1315,28 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
@@ -1530,14 +1355,19 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
@@ -1561,18 +1391,18 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>39</v>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1597,18 +1427,18 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>39</v>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1633,18 +1463,18 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>39</v>
+      <c r="C23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1669,11 +1499,10 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
@@ -1697,11 +1526,10 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
@@ -1725,11 +1553,10 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
@@ -1753,11 +1580,10 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
@@ -1781,7 +1607,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1809,7 +1635,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1837,16 +1663,16 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1873,21 +1699,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1911,21 +1737,21 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1949,21 +1775,21 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1987,21 +1813,21 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2025,18 +1851,18 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2061,18 +1887,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
@@ -2097,18 +1923,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2133,21 +1959,21 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="2">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2172,256 +1998,264 @@
       <c r="Z38" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C34" type="list">
       <formula1>table</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C36" type="list">
       <formula1>ignore_stop</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C35" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C35" type="list">
       <formula1>existingRecordPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A30:A38 A1:A27" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A8 A10:A18 A21:A27 A30:A38" type="list">
+      <formula1>RuletypesWRules</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C33" type="list">
+      <formula1>'Drop-down Lists'!$E$1:$E$15</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9 A19:A20" type="list">
       <formula1>RuletypesWRules</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>'Drop-down Lists'!$E$1:$E$15</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.625"/>
-    <col min="3" max="3" width="42.875"/>
-    <col min="4" max="4" width="8.625"/>
-    <col min="5" max="5" width="18.875"/>
-    <col min="6" max="26" width="8.625"/>
-    <col min="27" max="1025" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E8" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F8" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E9" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F9" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E10" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F10" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F11" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="E12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F12" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="E13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/mapeamento separado/CA mapeamento importação Acervo_Artigo_de_toalete.xlsx
+++ b/mapeamento separado/CA mapeamento importação Acervo_Artigo_de_toalete.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\mapeamento separado\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C89C29-8277-4FC8-9DA4-963ACF74C2C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Drop-down Lists" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Drop-down Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="existingRecordPolicy" vbProcedure="false">'Drop-down Lists'!$C$1:$C$13</definedName>
-    <definedName function="false" hidden="false" name="ignore_stop" vbProcedure="false">'Drop-down Lists'!$B$1:$B$2</definedName>
-    <definedName function="false" hidden="false" name="importer_type" vbProcedure="false">'Drop-down Lists'!$E$1:$E$3</definedName>
-    <definedName function="false" hidden="false" name="inputTypes" vbProcedure="false">'Drop-down Lists'!$E$1:$E$4</definedName>
-    <definedName function="false" hidden="false" name="Ruletypes" vbProcedure="false">'Drop-down Lists'!$A$1:$A$4</definedName>
-    <definedName function="false" hidden="false" name="RuletypesWRules" vbProcedure="false">'Drop-down Lists'!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" name="table" vbProcedure="false">'Drop-down Lists'!$F$1:$F$16</definedName>
-    <definedName function="false" hidden="false" name="YES_NO" vbProcedure="false">'Drop-down Lists'!$D$1:$D$2</definedName>
+    <definedName name="existingRecordPolicy">'Drop-down Lists'!$C$1:$C$13</definedName>
+    <definedName name="ignore_stop">'Drop-down Lists'!$B$1:$B$2</definedName>
+    <definedName name="importer_type">'Drop-down Lists'!$E$1:$E$3</definedName>
+    <definedName name="inputTypes">'Drop-down Lists'!$E$1:$E$4</definedName>
+    <definedName name="Ruletypes">'Drop-down Lists'!$A$1:$A$4</definedName>
+    <definedName name="RuletypesWRules">'Drop-down Lists'!$A$1:$A$6</definedName>
+    <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
+    <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,92 +38,89 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
   <si>
-    <t xml:space="preserve">Rule type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA table.element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refinery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refinery parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replacement values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.objectProductionDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_places</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placeSplitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>Rule type</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CA table.element</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>Refinery parameters</t>
+  </si>
+  <si>
+    <t>Original values</t>
+  </si>
+  <si>
+    <t>Replacement values</t>
+  </si>
+  <si>
+    <t>Source description</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>ca_objects.idno</t>
+  </si>
+  <si>
+    <t>ca_objects.preferred_labels</t>
+  </si>
+  <si>
+    <t>ca_objects.objectProductionDate</t>
+  </si>
+  <si>
+    <t>ca_places</t>
+  </si>
+  <si>
+    <t>placeSplitter</t>
+  </si>
+  <si>
+    <t>{
     "relationshipType": "created",
     "placeType": "city"
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">ca_objects.materiaux_tech_c.materiaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.work_dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_storage_locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storageLocationSplitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>ca_objects.work_dimensions</t>
+  </si>
+  <si>
+    <t>ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
+  </si>
+  <si>
+    <t>aquis</t>
+  </si>
+  <si>
+    <t>ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
+  </si>
+  <si>
+    <t>ca_storage_locations</t>
+  </si>
+  <si>
+    <t>storageLocationSplitter</t>
+  </si>
+  <si>
+    <t>{
     "relationshipType": "related"}</t>
   </si>
   <si>
-    <t xml:space="preserve">ca_objects.constatEtat.etat_global</t>
+    <t>ca_objects.constatEtat.etat_global</t>
   </si>
   <si>
     <r>
@@ -141,21 +143,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ruim
+      <t>Ruim
 "?"</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">bon
+    <t>bon
 a_traiter
 mauvais
 etatglobal_nonrenseigne</t>
   </si>
   <si>
-    <t xml:space="preserve">ca_entities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>ca_entities</t>
+  </si>
+  <si>
+    <t>{
    "applyRegularExpressions": [
  {
  "match": "(^[ A-Za-z,ãÃáÁàÀêÊéÉèÈíÍìÌôÔõÕóÓòÒúÚùÙûÛçÇºª\\']+).+", 
@@ -165,22 +167,22 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">entitySplitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>entitySplitter</t>
+  </si>
+  <si>
+    <t>{
     "relationshipType": "creation_auteur",
     "entityType": "ind"
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">ca_objects.inscription_c.inscription_info_c.inscription_emplacement_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c
+    <t>ca_objects.inscription_c.inscription_info_c.inscription_emplacement_c</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>c
 cd
 ce
 cid
@@ -208,7 +210,7 @@
 vece</t>
   </si>
   <si>
-    <t xml:space="preserve">centro
+    <t>centro
 centro à direita
 centro à esquerda
 canto inferior direito
@@ -236,260 +238,260 @@
 verso em cima à esquerda</t>
   </si>
   <si>
-    <t xml:space="preserve">Constant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.inscription_c.inscription_type_c.inscription_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.dimensions.dimensions_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.dimensions.dimensions_height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.dimensions.dimensions_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importação Artigo de toalete MDJVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human readable name of the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbitrary text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapeamento_Artigo_de_toalete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alphanumeric code of the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbitrary, no special characters or spaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputFormats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets the table for the imported data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponds to CollectiveAccess Basic Tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existingRecordPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determines how existing records are checked for and handled for the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errorPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opessoal_toalete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the target record's type_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numInitialRowsToSkip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_lots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYSQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMPDSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inmagic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_occurrences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CollectiveAccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMPXML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_movements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorldCat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_lot_events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pastperfectxml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_sets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_and_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TabDelimited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_set_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSVDelimited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_representations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_list_items</t>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>ca_objects.inscription_c.inscription_type_c.inscription_type</t>
+  </si>
+  <si>
+    <t>ca_objects.dimensions.dimensions_length</t>
+  </si>
+  <si>
+    <t>dim1</t>
+  </si>
+  <si>
+    <t>ca_objects.dimensions.dimensions_height</t>
+  </si>
+  <si>
+    <t>ca_objects.dimensions.dimensions_depth</t>
+  </si>
+  <si>
+    <t>Setting name</t>
+  </si>
+  <si>
+    <t>Setting value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Importação Artigo de toalete MDJVI</t>
+  </si>
+  <si>
+    <t>Human readable name of the mapping</t>
+  </si>
+  <si>
+    <t>Arbitrary text</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Mapeamento_Artigo_de_toalete</t>
+  </si>
+  <si>
+    <t>Alphanumeric code of the mapping</t>
+  </si>
+  <si>
+    <t>Arbitrary, no special characters or spaces</t>
+  </si>
+  <si>
+    <t>inputFormats</t>
+  </si>
+  <si>
+    <t>XLSX</t>
+  </si>
+  <si>
+    <t>Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
+  </si>
+  <si>
+    <t>file type</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>ca_objects</t>
+  </si>
+  <si>
+    <t>Sets the table for the imported data</t>
+  </si>
+  <si>
+    <t>Corresponds to CollectiveAccess Basic Tables</t>
+  </si>
+  <si>
+    <t>existingRecordPolicy</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Determines how existing records are checked for and handled for the mapping</t>
+  </si>
+  <si>
+    <t>errorPolicy</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>opessoal_toalete</t>
+  </si>
+  <si>
+    <t>Set the target record's type_id</t>
+  </si>
+  <si>
+    <t>numInitialRowsToSkip</t>
+  </si>
+  <si>
+    <t>The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
+  </si>
+  <si>
+    <t>If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ca_object_lots</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>skip_on_idno</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>merge_on_idno</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>merge_on_idno_with_replace</t>
+  </si>
+  <si>
+    <t>FMPDSO</t>
+  </si>
+  <si>
+    <t>ca_collections</t>
+  </si>
+  <si>
+    <t>overwrite_on_idno</t>
+  </si>
+  <si>
+    <t>Inmagic</t>
+  </si>
+  <si>
+    <t>ca_occurrences</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>skip_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>MARC</t>
+  </si>
+  <si>
+    <t>ca_loans</t>
+  </si>
+  <si>
+    <t>merge_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>CollectiveAccess</t>
+  </si>
+  <si>
+    <t>merge_on_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t>FMPXML</t>
+  </si>
+  <si>
+    <t>ca_movements</t>
+  </si>
+  <si>
+    <t>overwrite_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>TEI</t>
+  </si>
+  <si>
+    <t>ca_object_events</t>
+  </si>
+  <si>
+    <t>skip_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>WorldCat</t>
+  </si>
+  <si>
+    <t>ca_object_lot_events</t>
+  </si>
+  <si>
+    <t>merge_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>pastperfectxml</t>
+  </si>
+  <si>
+    <t>ca_sets</t>
+  </si>
+  <si>
+    <t>merge_on_idno_and_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t>TabDelimited</t>
+  </si>
+  <si>
+    <t>ca_set_items</t>
+  </si>
+  <si>
+    <t>overwrite_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>CSVDelimited</t>
+  </si>
+  <si>
+    <t>ca_object_representations</t>
+  </si>
+  <si>
+    <t>ULAN</t>
+  </si>
+  <si>
+    <t>RDF</t>
+  </si>
+  <si>
+    <t>ca_lists</t>
+  </si>
+  <si>
+    <t>ca_list_items</t>
+  </si>
+  <si>
+    <t>ca_objects.materiaux_tech_c.techniques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -498,22 +500,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -527,7 +514,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -542,7 +529,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -558,7 +545,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -566,125 +553,377 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="74.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="74.25" customWidth="1"/>
+    <col min="12" max="26" width="12" customWidth="1"/>
+    <col min="27" max="1025" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,11 +973,11 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -765,11 +1004,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -797,11 +1036,11 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
@@ -829,11 +1068,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
@@ -861,11 +1100,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -894,11 +1133,11 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -928,11 +1167,11 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -966,15 +1205,15 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>19</v>
+      <c r="C9" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -1000,11 +1239,11 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
@@ -1031,11 +1270,11 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
       <c r="D11" s="2"/>
@@ -1062,15 +1301,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>20</v>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
@@ -1096,18 +1335,18 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1132,18 +1371,18 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1168,23 +1407,23 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
+      <c r="C15" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1206,25 +1445,25 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>27</v>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
@@ -1244,11 +1483,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
       <c r="D17" s="2"/>
@@ -1275,25 +1514,25 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>30</v>
+      <c r="C18" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1315,27 +1554,27 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
@@ -1355,18 +1594,18 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1391,18 +1630,18 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1427,18 +1666,18 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1463,18 +1702,18 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>44</v>
+      <c r="C23" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1499,7 +1738,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="2"/>
@@ -1526,7 +1765,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="2"/>
@@ -1553,7 +1792,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
@@ -1580,7 +1819,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="2"/>
@@ -1607,7 +1846,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1635,7 +1874,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1663,16 +1902,16 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1699,21 +1938,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1737,21 +1976,21 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1775,21 +2014,21 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="E33" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1813,21 +2052,21 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1851,18 +2090,18 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" t="s">
         <v>66</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1887,18 +2126,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
         <v>69</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
@@ -1923,18 +2162,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1959,21 +2198,21 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1998,264 +2237,260 @@
       <c r="Z38" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C34" type="list">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>table</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C36" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>ignore_stop</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C35" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C35" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>existingRecordPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A8 A10:A18 A21:A27 A30:A38" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A8 A10:A18 A21:A27 A30:A38" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>RuletypesWRules</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C33" type="list">
-      <formula1>'Drop-down Lists'!$E$1:$E$15</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9 A19:A20" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A9 A19:A20" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>RuletypesWRules</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>'Drop-down Lists'!$E$1:$E$15</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
+    <col min="1" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="1025" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="0" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="0" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="E7" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="E8" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="0" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="E9" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="0" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="E10" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="0" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="E11" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="0" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="0" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="E13" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="0" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
+      <c r="F15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="0" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F16" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mapeamento separado/CA mapeamento importação Acervo_Artigo_de_toalete.xlsx
+++ b/mapeamento separado/CA mapeamento importação Acervo_Artigo_de_toalete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\mapeamento separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\mdjvi-master\mapeamento separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C89C29-8277-4FC8-9DA4-963ACF74C2C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8548D940-5895-47E6-B27C-F1298236AD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,16 +157,6 @@
     <t>ca_entities</t>
   </si>
   <si>
-    <t>{
-   "applyRegularExpressions": [
- {
- "match": "(^[ A-Za-z,ãÃáÁàÀêÊéÉèÈíÍìÌôÔõÕóÓòÒúÚùÙûÛçÇºª\\']+).+", 
-"replaceWith": "\\1" 
-}
-]
-}</t>
-  </si>
-  <si>
     <t>entitySplitter</t>
   </si>
   <si>
@@ -485,6 +475,16 @@
   </si>
   <si>
     <t>ca_objects.materiaux_tech_c.techniques</t>
+  </si>
+  <si>
+    <t>{
+   "applyRegularExpressions": [
+ {
+ "match": "(^[ A-Za-z,ãÃáÁàÀâÂêÊéÉèÈíÍìÌôÔõÕóÓòÒúÚüÜùÙûÛçÇºª\\.']+)", 
+"replaceWith": "\\1" 
+}
+]
+}</t>
   </si>
 </sst>
 </file>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -1526,13 +1526,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1562,19 +1562,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
@@ -1596,16 +1596,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1638,10 +1638,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1674,10 +1674,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1710,10 +1710,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1905,13 +1905,13 @@
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1940,19 +1940,19 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1978,19 +1978,19 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2016,19 +2016,19 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" t="s">
         <v>57</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2054,19 +2054,19 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" t="s">
         <v>65</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2128,16 +2128,16 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
         <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
@@ -2164,16 +2164,16 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2200,19 +2200,19 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2300,50 +2300,50 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -2351,16 +2351,16 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2368,35 +2368,35 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
         <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -2404,73 +2404,73 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
         <v>97</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
         <v>103</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
         <v>106</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
         <v>109</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
         <v>112</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>113</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -2478,15 +2478,15 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/mapeamento separado/CA mapeamento importação Acervo_Artigo_de_toalete.xlsx
+++ b/mapeamento separado/CA mapeamento importação Acervo_Artigo_de_toalete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\mdjvi-master\mapeamento separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\mdjvi-master\mapeamento separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8548D940-5895-47E6-B27C-F1298236AD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEE8931-A848-4E1E-8D13-DCE9E613B622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
